--- a/BaseDatosRockola.xlsx
+++ b/BaseDatosRockola.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristina\Documents\GitHub\ProyectoUIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E07F5790-CDA4-4E43-BE3A-392D9C58494E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185060F4-BA7C-4F00-8B62-F238F2CD5E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6F18BF13-7175-44F7-8301-70D0C5704327}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6F18BF13-7175-44F7-8301-70D0C5704327}"/>
   </bookViews>
   <sheets>
     <sheet name="Catálogo" sheetId="2" r:id="rId1"/>
@@ -211,9 +211,6 @@
     <t>Seleccionar</t>
   </si>
   <si>
-    <t>IdProgramación</t>
-  </si>
-  <si>
     <t>Turno</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>NombDecada</t>
+  </si>
+  <si>
+    <t>IdProgramacion</t>
   </si>
 </sst>
 </file>
@@ -513,6 +513,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,9 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BE87C9-2A7A-4F8E-B663-D11EDDB3D492}">
   <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,12 +1135,12 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
@@ -1224,11 +1224,11 @@
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1276,10 +1276,10 @@
       <c r="G16" s="19"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
@@ -1306,14 +1306,14 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="29"/>
+      <c r="B25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>36</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>38</v>
@@ -1336,17 +1336,17 @@
       </c>
     </row>
     <row r="29" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="36"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>36</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>43</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -1385,10 +1385,10 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>36</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>36</v>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11943F33-8012-468D-9DB8-9E52E33204A8}">
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,12 +1491,12 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -1589,13 +1589,13 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="16"/>
@@ -1603,39 +1603,39 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
-      <c r="C13" s="31"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="16"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
-      <c r="C14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="16"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
-      <c r="C15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="16"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
-      <c r="C16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="16"/>
       <c r="G16" s="15"/>
     </row>
@@ -1676,10 +1676,10 @@
       <c r="G20" s="19"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
@@ -1722,10 +1722,10 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5787BFF8-7F89-4A11-B705-2C65A70AABCC}">
   <dimension ref="B3:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,20 +1775,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
@@ -1797,28 +1797,28 @@
       <c r="B32" s="25"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="I59" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J59" s="29"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="I59" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I60" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>36</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
